--- a/biology/Zoologie/Égothèle_calédonien/Égothèle_calédonien.xlsx
+++ b/biology/Zoologie/Égothèle_calédonien/Égothèle_calédonien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89goth%C3%A8le_cal%C3%A9donien</t>
+          <t>Égothèle_calédonien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aegotheles savesi
 L'Égothèle calédonien (Aegotheles savesi) est une espèce d'oiseaux de la famille des Aegothelidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89goth%C3%A8le_cal%C3%A9donien</t>
+          <t>Égothèle_calédonien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Aegotheles savesi a été décrite en 1881 par l'ornithologue britannique Edgar Leopold Layard (1824-1900) et son fils Edgar Leopold Calthorp Layard (d) (1848-1921) alors respectivement consul et vice-consul à Nouméa[1]. Le spécimen analysé avait été capturé à Tongué (Tonghoué ?)[2] dans les environs de Nouméa, un 11 avril en pleine nuit et dans une chambre, sans doute attiré par la lumière[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Aegotheles savesi a été décrite en 1881 par l'ornithologue britannique Edgar Leopold Layard (1824-1900) et son fils Edgar Leopold Calthorp Layard (d) (1848-1921) alors respectivement consul et vice-consul à Nouméa. Le spécimen analysé avait été capturé à Tongué (Tonghoué ?) dans les environs de Nouméa, un 11 avril en pleine nuit et dans une chambre, sans doute attiré par la lumière.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89goth%C3%A8le_cal%C3%A9donien</t>
+          <t>Égothèle_calédonien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89goth%C3%A8le_cal%C3%A9donien</t>
+          <t>Égothèle_calédonien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Aegotheles savesi mesure 32 cm de longueur totale[1]. Selon les auteurs il s'agirait d'une espèce nocturne s'alimentant de petits coléoptères[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Aegotheles savesi mesure 32 cm de longueur totale. Selon les auteurs il s'agirait d'une espèce nocturne s'alimentant de petits coléoptères.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89goth%C3%A8le_cal%C3%A9donien</t>
+          <t>Égothèle_calédonien</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, savesi, lui a été donnée en l'honneur de M. Savés, ami des auteurs, à qui l'on avait remis le spécimen capturé[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, savesi, lui a été donnée en l'honneur de M. Savés, ami des auteurs, à qui l'on avait remis le spécimen capturé.
 </t>
         </is>
       </c>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89goth%C3%A8le_cal%C3%A9donien</t>
+          <t>Égothèle_calédonien</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,6 +657,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
